--- a/docs/기획/TripBy_요구사항정의서2.xlsx
+++ b/docs/기획/TripBy_요구사항정의서2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iueha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iueha\git\TripBy\docs\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28DAC5-437E-4383-81BB-BD8C243980BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9363E5-2F2F-43DA-8EF1-467EC0DEFB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{994E5B99-2E1F-4CFC-A719-4275DCE37E50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{994E5B99-2E1F-4CFC-A719-4275DCE37E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="158">
   <si>
     <t>요구사항ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,6 +574,53 @@
   </si>
   <si>
     <t>RI-06</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 플랜 작성할 때 일일 플랜, 혹은 세부 플랜에 버튼눌러서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 구하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택값을 가지고 DB에서 가장 유사한 회원을 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 확인 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 동행에서 해당 회원을 삭제, 동행 인원에게 알림, 취소한 회원은 페널티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 여행지 위치(지도)를 보여주고 해당 여행지에 같은 일자 여행자들 카드형 프로필로 보여줌, 
+이성허용여부, 원하는 인원을 선택할 수 있고 구하기 버튼
+동행이 잡혀있다면 같이 보여주고, 클릭하면 동행 확인 페이지로, 동행 취소버튼은 옆에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행장소와 시간 매칭된 회원을 카드형 프로필로 확인
+상세일정 조율을 위한 채팅창과 확인/거절(재매칭) 매칭취소 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,18 +1017,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94.25" customWidth="1"/>
     <col min="5" max="5" width="61.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1205,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1183,7 +1233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1214,7 +1264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1242,7 +1292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1259,7 +1309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1276,7 +1326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1290,7 +1340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1335,7 +1385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1349,7 +1399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1363,7 +1413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1377,7 +1427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -1385,7 +1435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1402,7 +1452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -1419,7 +1469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1433,7 +1483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1447,7 +1497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -1455,7 +1505,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1472,7 +1522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -1486,7 +1536,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -1500,7 +1550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -1514,7 +1564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>120</v>
       </c>
@@ -1522,47 +1572,86 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -1570,37 +1659,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>138</v>
       </c>
@@ -1608,32 +1697,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>

--- a/docs/기획/TripBy_요구사항정의서2.xlsx
+++ b/docs/기획/TripBy_요구사항정의서2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iueha\git\TripBy\docs\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9363E5-2F2F-43DA-8EF1-467EC0DEFB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50407612-7A94-4725-BF3D-6008D6134259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{994E5B99-2E1F-4CFC-A719-4275DCE37E50}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="162">
   <si>
     <t>요구사항ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -605,10 +605,6 @@
   </si>
   <si>
     <t>동행 취소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 동행에서 해당 회원을 삭제, 동행 인원에게 알림, 취소한 회원은 페널티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -620,6 +616,25 @@
   <si>
     <t>동행장소와 시간 매칭된 회원을 카드형 프로필로 확인
 상세일정 조율을 위한 채팅창과 확인/거절(재매칭) 매칭취소 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 동행에서 해당 회원을 삭제, 동행 인원에게 공지, 취소한 회원은 페널티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC-09</t>
+  </si>
+  <si>
+    <t>동행 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 회원이 소속된 동행, 동행 상태 확인해 참여할 동행, 참여한 동행 구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1013,11 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D6331E-37F8-45E1-8114-95685756995C}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1583,7 +1598,7 @@
         <v>147</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
         <v>148</v>
@@ -1614,7 +1629,7 @@
         <v>147</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1622,19 +1637,28 @@
         <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>126</v>
       </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1651,79 +1675,84 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>146</v>
       </c>
     </row>

--- a/docs/기획/TripBy_요구사항정의서2.xlsx
+++ b/docs/기획/TripBy_요구사항정의서2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iueha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28DAC5-437E-4383-81BB-BD8C243980BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{994E5B99-2E1F-4CFC-A719-4275DCE37E50}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
   <si>
     <t>요구사항ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,13 +568,121 @@
   </si>
   <si>
     <t>RI-06</t>
+  </si>
+  <si>
+    <t>여행기 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 여행기 , 베스트 여행기 , 나의 지난 여행기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기간 입력 달력,  제목, 내용 인풋 폼, 사진 업로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 API, 달력 API, 교통정보 API 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기 메인 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 달력을 통한 여행기간 입력, 여행장소, 목적, 여행기 공개 여부, 사진(멀티파트), 동행인원 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 달력을 통한 여행기간 입력, 여행장소, 목적, 여행기 공개 여부, 사진(멀티파트), 동행인원 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 ID값 찾아서 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 작성한 자신의 여행기 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 지난 여행기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 여행기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 회원이 공개설정으로 작성한 여행기 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추가 가능 여부에 따른 공개 설정 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 또는 타인이 작성한 여행기에 댓글, 대댓글 입력, 수정, 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">닉네임이 나오도록 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기 추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기에 추천 또는 별점 주기, 수정가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트여행기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반여행기에서 반응이 좋은 여행기만을 모아놓은 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준은 추천 또는 별점으로 필요하다면 조회수, 댓글 에따라 가중치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +703,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -639,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +758,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -761,7 +874,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -955,30 +1068,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D6331E-37F8-45E1-8114-95685756995C}">
-  <dimension ref="A1:E60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94.25" customWidth="1"/>
     <col min="5" max="5" width="61.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1183,7 +1296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1214,7 +1327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1242,7 +1355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1259,7 +1372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1276,7 +1389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1290,7 +1403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1335,7 +1448,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1349,7 +1462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1363,7 +1476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1377,7 +1490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -1385,7 +1498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1402,7 +1515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -1419,7 +1532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1433,7 +1546,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1447,7 +1560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -1455,7 +1568,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1472,7 +1585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -1486,7 +1599,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -1500,7 +1613,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -1514,7 +1627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>120</v>
       </c>
@@ -1522,47 +1635,50 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -1570,71 +1686,184 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>146</v>
       </c>
     </row>
